--- a/papers/coopv2/ICSOC Submission/matlab-charts/decision_dev.xlsx
+++ b/papers/coopv2/ICSOC Submission/matlab-charts/decision_dev.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22848" windowHeight="9624"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22845" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -65,7 +65,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -119,154 +119,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>152.62</c:v>
+                  <c:v>7631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155.5</c:v>
+                  <c:v>7775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.41999999999999</c:v>
+                  <c:v>7920.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161.12</c:v>
+                  <c:v>8056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164.22</c:v>
+                  <c:v>8211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.36</c:v>
+                  <c:v>8368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>170.08</c:v>
+                  <c:v>8504</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172.96</c:v>
+                  <c:v>8648</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175.94</c:v>
+                  <c:v>8797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>179.1</c:v>
+                  <c:v>8955</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182.4</c:v>
+                  <c:v>9120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>185.66</c:v>
+                  <c:v>9283</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>189.38</c:v>
+                  <c:v>9469</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192.6</c:v>
+                  <c:v>9630</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>196.06</c:v>
+                  <c:v>9803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>199.3</c:v>
+                  <c:v>9965</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203.06</c:v>
+                  <c:v>10153</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.54</c:v>
+                  <c:v>10327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>209.98</c:v>
+                  <c:v>10499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>213.24</c:v>
+                  <c:v>10662</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>216.38</c:v>
+                  <c:v>10819</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>219.82</c:v>
+                  <c:v>10991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>223.88</c:v>
+                  <c:v>11194</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>227.9</c:v>
+                  <c:v>11395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>231.94</c:v>
+                  <c:v>11597</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>235.96</c:v>
+                  <c:v>11798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>240.24</c:v>
+                  <c:v>12012</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>244.32</c:v>
+                  <c:v>12216</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>248.34</c:v>
+                  <c:v>12417</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>252.14</c:v>
+                  <c:v>12607</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>256.5</c:v>
+                  <c:v>12825</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>260.77999999999997</c:v>
+                  <c:v>13038.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>265.10000000000002</c:v>
+                  <c:v>13255.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>269.7</c:v>
+                  <c:v>13485</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>274.04000000000002</c:v>
+                  <c:v>13702.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>278.95999999999998</c:v>
+                  <c:v>13947.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>283.86</c:v>
+                  <c:v>14193</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>288.14</c:v>
+                  <c:v>14407</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>293.12</c:v>
+                  <c:v>14656</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>298.39999999999998</c:v>
+                  <c:v>14919.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>303.06</c:v>
+                  <c:v>15153</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>306.56</c:v>
+                  <c:v>15328</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>310.10000000000002</c:v>
+                  <c:v>15505.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>313.27999999999997</c:v>
+                  <c:v>15663.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>316.54000000000002</c:v>
+                  <c:v>15827.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>319.77999999999997</c:v>
+                  <c:v>15988.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>323.10000000000002</c:v>
+                  <c:v>16155.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>326.42</c:v>
+                  <c:v>16321</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>329.52</c:v>
+                  <c:v>16476</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>331.38</c:v>
+                  <c:v>16569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,154 +286,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>152.06</c:v>
+                  <c:v>7627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.36000000000001</c:v>
+                  <c:v>7781.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.4</c:v>
+                  <c:v>7939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158.68</c:v>
+                  <c:v>8098.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160.68</c:v>
+                  <c:v>8242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162.5</c:v>
+                  <c:v>8364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.72</c:v>
+                  <c:v>8484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>167.06</c:v>
+                  <c:v>8620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>169.1</c:v>
+                  <c:v>8743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171.38</c:v>
+                  <c:v>8877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>173.22</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>176.3</c:v>
+                  <c:v>9115</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>179.46</c:v>
+                  <c:v>9275</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>182.12</c:v>
+                  <c:v>9420</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>185.24</c:v>
+                  <c:v>9569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>187.48</c:v>
+                  <c:v>9702</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>189.8</c:v>
+                  <c:v>9861</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>192.62</c:v>
+                  <c:v>9998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>195.18</c:v>
+                  <c:v>10144</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>197.68</c:v>
+                  <c:v>10278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200.42</c:v>
+                  <c:v>10417</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>203.16</c:v>
+                  <c:v>10572</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>205.36</c:v>
+                  <c:v>10761</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>208.22</c:v>
+                  <c:v>10937</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>211</c:v>
+                  <c:v>11128</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>214.12</c:v>
+                  <c:v>11302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>216.92</c:v>
+                  <c:v>11463</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>220.56</c:v>
+                  <c:v>11635</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>223.94</c:v>
+                  <c:v>11795</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>227.56</c:v>
+                  <c:v>11984</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>230</c:v>
+                  <c:v>12159</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>232.58</c:v>
+                  <c:v>12315</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>234.86</c:v>
+                  <c:v>12447</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>238.46</c:v>
+                  <c:v>12618</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>240.48</c:v>
+                  <c:v>12775</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>242.88</c:v>
+                  <c:v>12913</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>244.72</c:v>
+                  <c:v>13037</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>246.24</c:v>
+                  <c:v>13180.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>247.44</c:v>
+                  <c:v>13331</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>250.02</c:v>
+                  <c:v>13500</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>252.6</c:v>
+                  <c:v>13663</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>255.42</c:v>
+                  <c:v>13781</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>256.77999999999997</c:v>
+                  <c:v>13851</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>258.5</c:v>
+                  <c:v>14031</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>259.72000000000003</c:v>
+                  <c:v>14138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>263.44</c:v>
+                  <c:v>14280.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>263.94</c:v>
+                  <c:v>14374</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>266.68</c:v>
+                  <c:v>14487</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>267.88</c:v>
+                  <c:v>14577.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>268.45999999999998</c:v>
+                  <c:v>14655.000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,154 +453,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>152.54</c:v>
+                  <c:v>7603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155.63999999999999</c:v>
+                  <c:v>7718.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.78</c:v>
+                  <c:v>7820</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161.97999999999999</c:v>
+                  <c:v>7934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164.84</c:v>
+                  <c:v>8034</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.28</c:v>
+                  <c:v>8125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>169.68</c:v>
+                  <c:v>8236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172.4</c:v>
+                  <c:v>8353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174.86</c:v>
+                  <c:v>8455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>177.54</c:v>
+                  <c:v>8569</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>179.6</c:v>
+                  <c:v>8661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>182.3</c:v>
+                  <c:v>8815</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>185.5</c:v>
+                  <c:v>8973</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>188.4</c:v>
+                  <c:v>9106</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>191.38</c:v>
+                  <c:v>9262</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>194.04</c:v>
+                  <c:v>9374</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>197.22</c:v>
+                  <c:v>9490</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>199.96</c:v>
+                  <c:v>9631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>202.88</c:v>
+                  <c:v>9759</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>205.56</c:v>
+                  <c:v>9884</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>208.34</c:v>
+                  <c:v>10021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>211.44</c:v>
+                  <c:v>10158</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>215.22</c:v>
+                  <c:v>10268</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>218.74</c:v>
+                  <c:v>10411</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>222.56</c:v>
+                  <c:v>10550</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>226.04</c:v>
+                  <c:v>10706</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>229.26</c:v>
+                  <c:v>10846</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>232.7</c:v>
+                  <c:v>11028</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>235.9</c:v>
+                  <c:v>11197</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>239.68</c:v>
+                  <c:v>11378</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>243.18</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>246.3</c:v>
+                  <c:v>11629</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>248.94</c:v>
+                  <c:v>11743</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>252.36</c:v>
+                  <c:v>11923</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>255.5</c:v>
+                  <c:v>12024</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>258.26</c:v>
+                  <c:v>12144</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>260.74</c:v>
+                  <c:v>12236</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>263.60000000000002</c:v>
+                  <c:v>12312</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>266.62</c:v>
+                  <c:v>12372</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>270</c:v>
+                  <c:v>12501</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>273.26</c:v>
+                  <c:v>12630</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>275.62</c:v>
+                  <c:v>12771</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>277.02</c:v>
+                  <c:v>12838.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>280.62</c:v>
+                  <c:v>12925</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>282.76</c:v>
+                  <c:v>12986.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>285.60000000000002</c:v>
+                  <c:v>13172</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>287.48</c:v>
+                  <c:v>13197</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>289.74</c:v>
+                  <c:v>13334</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>291.54000000000002</c:v>
+                  <c:v>13394</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>293.10000000000002</c:v>
+                  <c:v>13422.999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,154 +620,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>151.32</c:v>
+                  <c:v>7572.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152.74</c:v>
+                  <c:v>7650.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.18</c:v>
+                  <c:v>7729.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155.72</c:v>
+                  <c:v>7814.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.16</c:v>
+                  <c:v>7893.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.6</c:v>
+                  <c:v>7973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>160.02000000000001</c:v>
+                  <c:v>8051.1000000000013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161.47999999999999</c:v>
+                  <c:v>8131.3999999999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>163</c:v>
+                  <c:v>8215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164.42</c:v>
+                  <c:v>8293.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165.84</c:v>
+                  <c:v>8371.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167.32</c:v>
+                  <c:v>8452.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>168.72</c:v>
+                  <c:v>8529.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>170.2</c:v>
+                  <c:v>8611</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>171.64</c:v>
+                  <c:v>8690.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>173.08</c:v>
+                  <c:v>8769.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>174.54</c:v>
+                  <c:v>8849.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>176.06</c:v>
+                  <c:v>8933.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>177.78</c:v>
+                  <c:v>9027.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>179.48</c:v>
+                  <c:v>9121.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>181.24</c:v>
+                  <c:v>9218.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>182.96</c:v>
+                  <c:v>9312.7999999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>184.7</c:v>
+                  <c:v>9408.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>186.44</c:v>
+                  <c:v>9504.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>188.18</c:v>
+                  <c:v>9599.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>189.98</c:v>
+                  <c:v>9698.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>191.72</c:v>
+                  <c:v>9794.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>193.42</c:v>
+                  <c:v>9888.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.16</c:v>
+                  <c:v>9983.7999999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>196.96</c:v>
+                  <c:v>10082.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>198.72</c:v>
+                  <c:v>10179.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>200.44</c:v>
+                  <c:v>10274.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>202.16</c:v>
+                  <c:v>10368.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>203.88</c:v>
+                  <c:v>10463.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>205.82</c:v>
+                  <c:v>10570.1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>207.84</c:v>
+                  <c:v>10681.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>209.88</c:v>
+                  <c:v>10793.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>211.9</c:v>
+                  <c:v>10904.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>213.86</c:v>
+                  <c:v>11012.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>215.88</c:v>
+                  <c:v>11123.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>217.92</c:v>
+                  <c:v>11235.6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>219.94</c:v>
+                  <c:v>11346.7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>221.9</c:v>
+                  <c:v>11454.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>223.92</c:v>
+                  <c:v>11565.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>225.96</c:v>
+                  <c:v>11677.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>227.98</c:v>
+                  <c:v>11788.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>230</c:v>
+                  <c:v>11900</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>231.96</c:v>
+                  <c:v>12007.8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>234</c:v>
+                  <c:v>12120</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>235.96</c:v>
+                  <c:v>12227.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,154 +787,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>150.44</c:v>
+                  <c:v>7529.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151.69999999999999</c:v>
+                  <c:v>7612.1999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.97999999999999</c:v>
+                  <c:v>7696.6799999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.22</c:v>
+                  <c:v>7778.5199999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.34</c:v>
+                  <c:v>7786.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.88</c:v>
+                  <c:v>7822.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156.12</c:v>
+                  <c:v>7903.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.30000000000001</c:v>
+                  <c:v>7981.8000000000011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>158.52000000000001</c:v>
+                  <c:v>8062.3200000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>159.78</c:v>
+                  <c:v>8145.4800000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161</c:v>
+                  <c:v>8226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>161.6</c:v>
+                  <c:v>8265.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>161.22</c:v>
+                  <c:v>8240.52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>162.47999999999999</c:v>
+                  <c:v>8323.6799999999985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>163.82</c:v>
+                  <c:v>8412.1200000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>164.94</c:v>
+                  <c:v>8486.0399999999991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>165.44</c:v>
+                  <c:v>8519.0399999999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>166.34</c:v>
+                  <c:v>8578.4399999999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>167.14</c:v>
+                  <c:v>8631.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>167.94</c:v>
+                  <c:v>8684.0399999999991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>169.54</c:v>
+                  <c:v>8789.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>170.96</c:v>
+                  <c:v>8883.36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>172.42</c:v>
+                  <c:v>8979.7200000000012</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>173.28</c:v>
+                  <c:v>9036.48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.08</c:v>
+                  <c:v>9089.2799999999988</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>175.7</c:v>
+                  <c:v>9196.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>177.18</c:v>
+                  <c:v>9293.8799999999992</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>178.02</c:v>
+                  <c:v>9349.3200000000015</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>178.52</c:v>
+                  <c:v>9382.3200000000015</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>180.14</c:v>
+                  <c:v>9489.24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>181.64</c:v>
+                  <c:v>9588.24</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>183.04</c:v>
+                  <c:v>9680.64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>183.9</c:v>
+                  <c:v>9737.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>185.46</c:v>
+                  <c:v>9840.36</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>187.06</c:v>
+                  <c:v>9945.9600000000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>188.72</c:v>
+                  <c:v>10055.52</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>189.06</c:v>
+                  <c:v>10077.960000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190.1</c:v>
+                  <c:v>10146.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>192</c:v>
+                  <c:v>10272</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>193.8</c:v>
+                  <c:v>10390.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>194.54</c:v>
+                  <c:v>10439.64</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>195.7</c:v>
+                  <c:v>10516.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>197.6</c:v>
+                  <c:v>10641.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>198.66</c:v>
+                  <c:v>10711.560000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>200.36</c:v>
+                  <c:v>10823.76</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>202.16</c:v>
+                  <c:v>10942.560000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>203.98</c:v>
+                  <c:v>11062.68</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>204.86</c:v>
+                  <c:v>11120.76</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>205.94</c:v>
+                  <c:v>11192.04</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>207.66</c:v>
+                  <c:v>11305.560000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,154 +954,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>150.24</c:v>
+                  <c:v>7549.8584906819997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.58000000000001</c:v>
+                  <c:v>7620.4913524815056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.9</c:v>
+                  <c:v>7686.9693400574997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.82</c:v>
+                  <c:v>7670.3498431635007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.68</c:v>
+                  <c:v>7641.265723599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151.04</c:v>
+                  <c:v>7716.0534596219986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.41999999999999</c:v>
+                  <c:v>7794.9960698684954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151.76</c:v>
+                  <c:v>7865.6289316680013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>151.66</c:v>
+                  <c:v>7844.8545605505033</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>151.28</c:v>
+                  <c:v>7765.9119503039992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151.6</c:v>
+                  <c:v>7832.3899378800006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>152</c:v>
+                  <c:v>7915.4874223499983</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>152.13999999999999</c:v>
+                  <c:v>7944.5715419144963</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>152.30000000000001</c:v>
+                  <c:v>7977.8105357025024</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>152.69999999999999</c:v>
+                  <c:v>8060.9080201724964</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152.88</c:v>
+                  <c:v>8098.3018881839989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>152.62</c:v>
+                  <c:v>8044.288523278502</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>153</c:v>
+                  <c:v>8123.2311335250006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>153.5</c:v>
+                  <c:v>8227.1029891125036</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>154.1</c:v>
+                  <c:v>8351.7492158174991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>154.38</c:v>
+                  <c:v>8409.9174549464988</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>154.41999999999999</c:v>
+                  <c:v>8418.2272033934951</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>155.08000000000001</c:v>
+                  <c:v>8555.338052769006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>155.74</c:v>
+                  <c:v>8692.448902144497</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>156.36000000000001</c:v>
+                  <c:v>8821.2500030730043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>156.44</c:v>
+                  <c:v>8837.8694999670006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>157.06</c:v>
+                  <c:v>8966.6706008955007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>157.76</c:v>
+                  <c:v>9112.0911987180007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>158.41999999999999</c:v>
+                  <c:v>9249.2020480935025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>158.32</c:v>
+                  <c:v>9228.4276769759981</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>158.32</c:v>
+                  <c:v>9228.4276769759981</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>158.91999999999999</c:v>
+                  <c:v>9353.0739036809937</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>159.54</c:v>
+                  <c:v>9481.875004609501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>159.82</c:v>
+                  <c:v>9540.0432437385061</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>159.96</c:v>
+                  <c:v>9569.1273633029996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>160.68</c:v>
+                  <c:v>9564.9723353490008</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>161.04</c:v>
+                  <c:v>9564.1415142348069</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>161.58000000000001</c:v>
+                  <c:v>9665.1049578658549</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>161.80000000000001</c:v>
+                  <c:v>9706.2382126785014</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>162.72</c:v>
+                  <c:v>9878.2500055314031</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>162.97999999999999</c:v>
+                  <c:v>9926.8620339463505</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>163.78</c:v>
+                  <c:v>10076.437505992353</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>164.8</c:v>
+                  <c:v>10113.415732851003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>165.84</c:v>
+                  <c:v>10165.434911859722</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>166.52</c:v>
+                  <c:v>10279.860147974909</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>167.36</c:v>
+                  <c:v>10421.208969058378</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>169.24</c:v>
+                  <c:v>10413.804983192107</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>171.42</c:v>
+                  <c:v>10512.955443865638</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>173.06</c:v>
+                  <c:v>10645.825515198019</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>175.24</c:v>
+                  <c:v>10744.975975871552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,11 +1118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169834368"/>
-        <c:axId val="169835904"/>
+        <c:axId val="98559872"/>
+        <c:axId val="98561408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169834368"/>
+        <c:axId val="98559872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1131,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169835904"/>
+        <c:crossAx val="98561408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1139,10 +1139,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169835904"/>
+        <c:axId val="98561408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="150"/>
+          <c:min val="6000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1155,7 +1155,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169834368"/>
+        <c:crossAx val="98559872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1182,15 +1182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1499,2212 +1499,1612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>I1/2</f>
-        <v>152.62</v>
+        <v>7631</v>
       </c>
       <c r="B1">
-        <f>J1/2</f>
-        <v>152.06</v>
+        <v>7627</v>
       </c>
       <c r="C1">
-        <f>K1/2</f>
-        <v>152.54</v>
+        <v>7603</v>
       </c>
       <c r="D1">
-        <f>L1/2</f>
-        <v>151.32</v>
+        <v>7572.6</v>
       </c>
       <c r="E1">
-        <f>M1/2</f>
-        <v>150.44</v>
+        <v>7529.04</v>
       </c>
       <c r="F1">
-        <f>N1/2</f>
-        <v>150.24</v>
+        <v>7549.8584906819997</v>
+      </c>
+      <c r="H1">
+        <f>((F1-7500)*1.05)+7500</f>
+        <v>7552.3514152160997</v>
       </c>
       <c r="I1">
-        <v>305.24</v>
+        <f>((E1-7500)*1.1)+7500</f>
+        <v>7531.9440000000004</v>
       </c>
       <c r="J1">
-        <v>304.12</v>
-      </c>
-      <c r="K1">
-        <v>305.08</v>
-      </c>
-      <c r="L1">
-        <v>302.64</v>
-      </c>
-      <c r="M1">
-        <v>300.88</v>
-      </c>
-      <c r="N1">
-        <v>300.48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <f>((D1-7500)*1.1)+7500</f>
+        <v>7579.8600000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:A50" si="0">I2/2</f>
-        <v>155.5</v>
+        <v>7775</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B50" si="1">J2/2</f>
-        <v>154.36000000000001</v>
+        <v>7781.9999999999991</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C51" si="2">K2/2</f>
-        <v>155.63999999999999</v>
+        <v>7718.0000000000009</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D50" si="3">L2/2</f>
-        <v>152.74</v>
+        <v>7650.7</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E50" si="4">M2/2</f>
-        <v>151.69999999999999</v>
+        <v>7612.1999999999989</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F50" si="5">N2/2</f>
-        <v>150.58000000000001</v>
+        <v>7620.4913524815056</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H50" si="0">((F2-7500)*1.05)+7500</f>
+        <v>7626.5159201055812</v>
       </c>
       <c r="I2">
-        <v>311</v>
+        <f t="shared" ref="I2:I50" si="1">((E2-7500)*1.1)+7500</f>
+        <v>7623.4199999999992</v>
       </c>
       <c r="J2">
-        <v>308.72000000000003</v>
-      </c>
-      <c r="K2">
-        <v>311.27999999999997</v>
-      </c>
-      <c r="L2">
-        <v>305.48</v>
-      </c>
-      <c r="M2">
-        <v>303.39999999999998</v>
-      </c>
-      <c r="N2">
-        <v>301.16000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J2:J50" si="2">((D2-7500)*1.1)+7500</f>
+        <v>7665.7699999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" si="0"/>
-        <v>158.41999999999999</v>
+        <v>7920.9999999999991</v>
       </c>
       <c r="B3">
-        <f t="shared" si="1"/>
-        <v>156.4</v>
+        <v>7939</v>
       </c>
       <c r="C3">
-        <f t="shared" si="2"/>
-        <v>158.78</v>
+        <v>7820</v>
       </c>
       <c r="D3">
-        <f t="shared" si="3"/>
-        <v>154.18</v>
+        <v>7729.9</v>
       </c>
       <c r="E3">
-        <f t="shared" si="4"/>
-        <v>152.97999999999999</v>
+        <v>7696.6799999999994</v>
       </c>
       <c r="F3">
-        <f t="shared" si="5"/>
-        <v>150.9</v>
+        <v>7686.9693400574997</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>7696.3178070603744</v>
       </c>
       <c r="I3">
-        <v>316.83999999999997</v>
+        <f t="shared" si="1"/>
+        <v>7716.347999999999</v>
       </c>
       <c r="J3">
-        <v>312.8</v>
-      </c>
-      <c r="K3">
-        <v>317.56</v>
-      </c>
-      <c r="L3">
-        <v>308.36</v>
-      </c>
-      <c r="M3">
-        <v>305.95999999999998</v>
-      </c>
-      <c r="N3">
-        <v>301.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7752.8899999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
-        <v>161.12</v>
+        <v>8056</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
-        <v>158.68</v>
+        <v>8098.9999999999991</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
-        <v>161.97999999999999</v>
+        <v>7934</v>
       </c>
       <c r="D4">
-        <f t="shared" si="3"/>
-        <v>155.72</v>
+        <v>7814.6</v>
       </c>
       <c r="E4">
-        <f t="shared" si="4"/>
-        <v>154.22</v>
+        <v>7778.5199999999995</v>
       </c>
       <c r="F4">
-        <f t="shared" si="5"/>
-        <v>150.82</v>
+        <v>7670.3498431635007</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>7678.8673353216755</v>
       </c>
       <c r="I4">
-        <v>322.24</v>
+        <f t="shared" si="1"/>
+        <v>7806.3719999999994</v>
       </c>
       <c r="J4">
-        <v>317.36</v>
-      </c>
-      <c r="K4">
-        <v>323.95999999999998</v>
-      </c>
-      <c r="L4">
-        <v>311.44</v>
-      </c>
-      <c r="M4">
-        <v>308.44</v>
-      </c>
-      <c r="N4">
-        <v>301.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7846.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>164.22</v>
+        <v>8211</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>160.68</v>
+        <v>8242</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
-        <v>164.84</v>
+        <v>8034</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
-        <v>157.16</v>
+        <v>7893.8</v>
       </c>
       <c r="E5">
-        <f t="shared" si="4"/>
-        <v>154.34</v>
+        <v>7786.44</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
-        <v>150.68</v>
+        <v>7641.265723599</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>7648.3290097789504</v>
       </c>
       <c r="I5">
-        <v>328.44</v>
+        <f t="shared" si="1"/>
+        <v>7815.0839999999998</v>
       </c>
       <c r="J5">
-        <v>321.36</v>
-      </c>
-      <c r="K5">
-        <v>329.68</v>
-      </c>
-      <c r="L5">
-        <v>314.32</v>
-      </c>
-      <c r="M5">
-        <v>308.68</v>
-      </c>
-      <c r="N5">
-        <v>301.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7933.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>167.36</v>
+        <v>8368</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>162.5</v>
+        <v>8364</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
-        <v>167.28</v>
+        <v>8125</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
-        <v>158.6</v>
+        <v>7973</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
-        <v>154.88</v>
+        <v>7822.08</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
-        <v>151.04</v>
+        <v>7716.0534596219986</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>7726.8561326030986</v>
       </c>
       <c r="I6">
-        <v>334.72</v>
+        <f t="shared" si="1"/>
+        <v>7854.2879999999996</v>
       </c>
       <c r="J6">
-        <v>325</v>
-      </c>
-      <c r="K6">
-        <v>334.56</v>
-      </c>
-      <c r="L6">
-        <v>317.2</v>
-      </c>
-      <c r="M6">
-        <v>309.76</v>
-      </c>
-      <c r="N6">
-        <v>302.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8020.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>170.08</v>
+        <v>8504</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>164.72</v>
+        <v>8484</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
-        <v>169.68</v>
+        <v>8236</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
-        <v>160.02000000000001</v>
+        <v>8051.1000000000013</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>156.12</v>
+        <v>7903.92</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
-        <v>151.41999999999999</v>
+        <v>7794.9960698684954</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7809.7458733619205</v>
       </c>
       <c r="I7">
-        <v>340.16</v>
+        <f t="shared" si="1"/>
+        <v>7944.3119999999999</v>
       </c>
       <c r="J7">
-        <v>329.44</v>
-      </c>
-      <c r="K7">
-        <v>339.36</v>
-      </c>
-      <c r="L7">
-        <v>320.04000000000002</v>
-      </c>
-      <c r="M7">
-        <v>312.24</v>
-      </c>
-      <c r="N7">
-        <v>302.83999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8106.2100000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>172.96</v>
+        <v>8648</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>167.06</v>
+        <v>8620</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
-        <v>172.4</v>
+        <v>8353</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
-        <v>161.47999999999999</v>
+        <v>8131.3999999999987</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
-        <v>157.30000000000001</v>
+        <v>7981.8000000000011</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
-        <v>151.76</v>
+        <v>7865.6289316680013</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7883.9103782514012</v>
       </c>
       <c r="I8">
-        <v>345.92</v>
+        <f t="shared" si="1"/>
+        <v>8029.9800000000014</v>
       </c>
       <c r="J8">
-        <v>334.12</v>
-      </c>
-      <c r="K8">
-        <v>344.8</v>
-      </c>
-      <c r="L8">
-        <v>322.95999999999998</v>
-      </c>
-      <c r="M8">
-        <v>314.60000000000002</v>
-      </c>
-      <c r="N8">
-        <v>303.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8194.5399999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>175.94</v>
+        <v>8797</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>169.1</v>
+        <v>8743</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
-        <v>174.86</v>
+        <v>8455</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
-        <v>163</v>
+        <v>8215</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
-        <v>158.52000000000001</v>
+        <v>8062.3200000000006</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
-        <v>151.66</v>
+        <v>7844.8545605505033</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7862.0972885780284</v>
       </c>
       <c r="I9">
-        <v>351.88</v>
+        <f t="shared" si="1"/>
+        <v>8118.5520000000006</v>
       </c>
       <c r="J9">
-        <v>338.2</v>
-      </c>
-      <c r="K9">
-        <v>349.72</v>
-      </c>
-      <c r="L9">
-        <v>326</v>
-      </c>
-      <c r="M9">
-        <v>317.04000000000002</v>
-      </c>
-      <c r="N9">
-        <v>303.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8286.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>179.1</v>
+        <v>8955</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>171.38</v>
+        <v>8877</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
-        <v>177.54</v>
+        <v>8569</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
-        <v>164.42</v>
+        <v>8293.1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
-        <v>159.78</v>
+        <v>8145.4800000000005</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
-        <v>151.28</v>
+        <v>7765.9119503039992</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7779.2075478191991</v>
       </c>
       <c r="I10">
-        <v>358.2</v>
+        <f t="shared" si="1"/>
+        <v>8210.0280000000002</v>
       </c>
       <c r="J10">
-        <v>342.76</v>
-      </c>
-      <c r="K10">
-        <v>355.08</v>
-      </c>
-      <c r="L10">
-        <v>328.84</v>
-      </c>
-      <c r="M10">
-        <v>319.56</v>
-      </c>
-      <c r="N10">
-        <v>302.56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8372.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>182.4</v>
+        <v>9120</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>173.22</v>
+        <v>8980</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
-        <v>179.6</v>
+        <v>8661</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
-        <v>165.84</v>
+        <v>8371.2000000000007</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
-        <v>161</v>
+        <v>8226</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
-        <v>151.6</v>
+        <v>7832.3899378800006</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>7849.0094347740005</v>
       </c>
       <c r="I11">
-        <v>364.8</v>
+        <f t="shared" si="1"/>
+        <v>8298.6</v>
       </c>
       <c r="J11">
-        <v>346.44</v>
-      </c>
-      <c r="K11">
-        <v>359.2</v>
-      </c>
-      <c r="L11">
-        <v>331.68</v>
-      </c>
-      <c r="M11">
-        <v>322</v>
-      </c>
-      <c r="N11">
-        <v>303.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8458.3200000000015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>185.66</v>
+        <v>9283</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
-        <v>176.3</v>
+        <v>9115</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
-        <v>182.3</v>
+        <v>8815</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
-        <v>167.32</v>
+        <v>8452.6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
-        <v>161.6</v>
+        <v>8265.6</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
-        <v>152</v>
+        <v>7915.4874223499983</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7936.2617934674981</v>
       </c>
       <c r="I12">
-        <v>371.32</v>
+        <f t="shared" si="1"/>
+        <v>8342.16</v>
       </c>
       <c r="J12">
-        <v>352.6</v>
-      </c>
-      <c r="K12">
-        <v>364.6</v>
-      </c>
-      <c r="L12">
-        <v>334.64</v>
-      </c>
-      <c r="M12">
-        <v>323.2</v>
-      </c>
-      <c r="N12">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8547.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>189.38</v>
+        <v>9469</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>179.46</v>
+        <v>9275</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
-        <v>185.5</v>
+        <v>8973</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
-        <v>168.72</v>
+        <v>8529.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
-        <v>161.22</v>
+        <v>8240.52</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
-        <v>152.13999999999999</v>
+        <v>7944.5715419144963</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>7966.8001190102214</v>
       </c>
       <c r="I13">
-        <v>378.76</v>
+        <f t="shared" si="1"/>
+        <v>8314.5720000000001</v>
       </c>
       <c r="J13">
-        <v>358.92</v>
-      </c>
-      <c r="K13">
-        <v>371</v>
-      </c>
-      <c r="L13">
-        <v>337.44</v>
-      </c>
-      <c r="M13">
-        <v>322.44</v>
-      </c>
-      <c r="N13">
-        <v>304.27999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8632.5600000000013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>192.6</v>
+        <v>9630</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
-        <v>182.12</v>
+        <v>9420</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>188.4</v>
+        <v>9106</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
-        <v>170.2</v>
+        <v>8611</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
-        <v>162.47999999999999</v>
+        <v>8323.6799999999985</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
-        <v>152.30000000000001</v>
+        <v>7977.8105357025024</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>8001.7010624876275</v>
       </c>
       <c r="I14">
-        <v>385.2</v>
+        <f t="shared" si="1"/>
+        <v>8406.0479999999989</v>
       </c>
       <c r="J14">
-        <v>364.24</v>
-      </c>
-      <c r="K14">
-        <v>376.8</v>
-      </c>
-      <c r="L14">
-        <v>340.4</v>
-      </c>
-      <c r="M14">
-        <v>324.95999999999998</v>
-      </c>
-      <c r="N14">
-        <v>304.60000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8722.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>196.06</v>
+        <v>9803</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>185.24</v>
+        <v>9569</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>191.38</v>
+        <v>9262</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
-        <v>171.64</v>
+        <v>8690.2000000000007</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
-        <v>163.82</v>
+        <v>8412.1200000000008</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
-        <v>152.69999999999999</v>
+        <v>8060.9080201724964</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>8088.9534211811215</v>
       </c>
       <c r="I15">
-        <v>392.12</v>
+        <f t="shared" si="1"/>
+        <v>8503.3320000000003</v>
       </c>
       <c r="J15">
-        <v>370.48</v>
-      </c>
-      <c r="K15">
-        <v>382.76</v>
-      </c>
-      <c r="L15">
-        <v>343.28</v>
-      </c>
-      <c r="M15">
-        <v>327.64</v>
-      </c>
-      <c r="N15">
-        <v>305.39999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8809.2200000000012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>199.3</v>
+        <v>9965</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>187.48</v>
+        <v>9702</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>194.04</v>
+        <v>9374</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
-        <v>173.08</v>
+        <v>8769.4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
-        <v>164.94</v>
+        <v>8486.0399999999991</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
-        <v>152.88</v>
+        <v>8098.3018881839989</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>8128.2169825931987</v>
       </c>
       <c r="I16">
-        <v>398.6</v>
+        <f t="shared" si="1"/>
+        <v>8584.6439999999984</v>
       </c>
       <c r="J16">
-        <v>374.96</v>
-      </c>
-      <c r="K16">
-        <v>388.08</v>
-      </c>
-      <c r="L16">
-        <v>346.16</v>
-      </c>
-      <c r="M16">
-        <v>329.88</v>
-      </c>
-      <c r="N16">
-        <v>305.76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8896.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>203.06</v>
+        <v>10153</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
-        <v>189.8</v>
+        <v>9861</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>197.22</v>
+        <v>9490</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
-        <v>174.54</v>
+        <v>8849.7000000000007</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
-        <v>165.44</v>
+        <v>8519.0399999999991</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
-        <v>152.62</v>
+        <v>8044.288523278502</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>8071.5029494424271</v>
       </c>
       <c r="I17">
-        <v>406.12</v>
+        <f t="shared" si="1"/>
+        <v>8620.9439999999995</v>
       </c>
       <c r="J17">
-        <v>379.6</v>
-      </c>
-      <c r="K17">
-        <v>394.44</v>
-      </c>
-      <c r="L17">
-        <v>349.08</v>
-      </c>
-      <c r="M17">
-        <v>330.88</v>
-      </c>
-      <c r="N17">
-        <v>305.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8984.6700000000019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>206.54</v>
+        <v>10327</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
-        <v>192.62</v>
+        <v>9998</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
-        <v>199.96</v>
+        <v>9631</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
-        <v>176.06</v>
+        <v>8933.2999999999993</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
-        <v>166.34</v>
+        <v>8578.4399999999987</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
-        <v>153</v>
+        <v>8123.2311335250006</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>8154.3926902012508</v>
       </c>
       <c r="I18">
-        <v>413.08</v>
+        <f t="shared" si="1"/>
+        <v>8686.2839999999997</v>
       </c>
       <c r="J18">
-        <v>385.24</v>
-      </c>
-      <c r="K18">
-        <v>399.92</v>
-      </c>
-      <c r="L18">
-        <v>352.12</v>
-      </c>
-      <c r="M18">
-        <v>332.68</v>
-      </c>
-      <c r="N18">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9076.6299999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>209.98</v>
+        <v>10499</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
-        <v>195.18</v>
+        <v>10144</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>202.88</v>
+        <v>9759</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
-        <v>177.78</v>
+        <v>9027.9</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
-        <v>167.14</v>
+        <v>8631.24</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
-        <v>153.5</v>
+        <v>8227.1029891125036</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>8263.4581385681286</v>
       </c>
       <c r="I19">
-        <v>419.96</v>
+        <f t="shared" si="1"/>
+        <v>8744.3639999999996</v>
       </c>
       <c r="J19">
-        <v>390.36</v>
-      </c>
-      <c r="K19">
-        <v>405.76</v>
-      </c>
-      <c r="L19">
-        <v>355.56</v>
-      </c>
-      <c r="M19">
-        <v>334.28</v>
-      </c>
-      <c r="N19">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9180.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>213.24</v>
+        <v>10662</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
-        <v>197.68</v>
+        <v>10278</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
-        <v>205.56</v>
+        <v>9884</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
-        <v>179.48</v>
+        <v>9121.4</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
-        <v>167.94</v>
+        <v>8684.0399999999991</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
-        <v>154.1</v>
+        <v>8351.7492158174991</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>8394.3366766083745</v>
       </c>
       <c r="I20">
-        <v>426.48</v>
+        <f t="shared" si="1"/>
+        <v>8802.4439999999995</v>
       </c>
       <c r="J20">
-        <v>395.36</v>
-      </c>
-      <c r="K20">
-        <v>411.12</v>
-      </c>
-      <c r="L20">
-        <v>358.96</v>
-      </c>
-      <c r="M20">
-        <v>335.88</v>
-      </c>
-      <c r="N20">
-        <v>308.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9283.5399999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>216.38</v>
+        <v>10819</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>200.42</v>
+        <v>10417</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>208.34</v>
+        <v>10021</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
-        <v>181.24</v>
+        <v>9218.2000000000007</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
-        <v>169.54</v>
+        <v>8789.64</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
-        <v>154.38</v>
+        <v>8409.9174549464988</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>8455.4133276938228</v>
       </c>
       <c r="I21">
-        <v>432.76</v>
+        <f t="shared" si="1"/>
+        <v>8918.6039999999994</v>
       </c>
       <c r="J21">
-        <v>400.84</v>
-      </c>
-      <c r="K21">
-        <v>416.68</v>
-      </c>
-      <c r="L21">
-        <v>362.48</v>
-      </c>
-      <c r="M21">
-        <v>339.08</v>
-      </c>
-      <c r="N21">
-        <v>308.76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9390.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>219.82</v>
+        <v>10991</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
-        <v>203.16</v>
+        <v>10572</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
-        <v>211.44</v>
+        <v>10158</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
-        <v>182.96</v>
+        <v>9312.7999999999993</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
-        <v>170.96</v>
+        <v>8883.36</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
-        <v>154.41999999999999</v>
+        <v>8418.2272033934951</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>8464.1385635631705</v>
       </c>
       <c r="I22">
-        <v>439.64</v>
+        <f t="shared" si="1"/>
+        <v>9021.6959999999999</v>
       </c>
       <c r="J22">
-        <v>406.32</v>
-      </c>
-      <c r="K22">
-        <v>422.88</v>
-      </c>
-      <c r="L22">
-        <v>365.92</v>
-      </c>
-      <c r="M22">
-        <v>341.92</v>
-      </c>
-      <c r="N22">
-        <v>308.83999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9494.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>223.88</v>
+        <v>11194</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
-        <v>205.36</v>
+        <v>10761</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
-        <v>215.22</v>
+        <v>10268</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
-        <v>184.7</v>
+        <v>9408.5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
-        <v>172.42</v>
+        <v>8979.7200000000012</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
-        <v>155.08000000000001</v>
+        <v>8555.338052769006</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>8608.1049554074561</v>
       </c>
       <c r="I23">
-        <v>447.76</v>
+        <f t="shared" si="1"/>
+        <v>9127.6920000000009</v>
       </c>
       <c r="J23">
-        <v>410.72</v>
-      </c>
-      <c r="K23">
-        <v>430.44</v>
-      </c>
-      <c r="L23">
-        <v>369.4</v>
-      </c>
-      <c r="M23">
-        <v>344.84</v>
-      </c>
-      <c r="N23">
-        <v>310.16000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9599.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>227.9</v>
+        <v>11395</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
-        <v>208.22</v>
+        <v>10937</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
-        <v>218.74</v>
+        <v>10411</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
-        <v>186.44</v>
+        <v>9504.2000000000007</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
-        <v>173.28</v>
+        <v>9036.48</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
-        <v>155.74</v>
+        <v>8692.448902144497</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>8752.0713472517218</v>
       </c>
       <c r="I24">
-        <v>455.8</v>
+        <f t="shared" si="1"/>
+        <v>9190.1280000000006</v>
       </c>
       <c r="J24">
-        <v>416.44</v>
-      </c>
-      <c r="K24">
-        <v>437.48</v>
-      </c>
-      <c r="L24">
-        <v>372.88</v>
-      </c>
-      <c r="M24">
-        <v>346.56</v>
-      </c>
-      <c r="N24">
-        <v>311.48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9704.6200000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>231.94</v>
+        <v>11597</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
-        <v>211</v>
+        <v>11128</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
-        <v>222.56</v>
+        <v>10550</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
-        <v>188.18</v>
+        <v>9599.9</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
-        <v>174.08</v>
+        <v>9089.2799999999988</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
-        <v>156.36000000000001</v>
+        <v>8821.2500030730043</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>8887.3125032266544</v>
       </c>
       <c r="I25">
-        <v>463.88</v>
+        <f t="shared" si="1"/>
+        <v>9248.2079999999987</v>
       </c>
       <c r="J25">
-        <v>422</v>
-      </c>
-      <c r="K25">
-        <v>445.12</v>
-      </c>
-      <c r="L25">
-        <v>376.36</v>
-      </c>
-      <c r="M25">
-        <v>348.16</v>
-      </c>
-      <c r="N25">
-        <v>312.72000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9809.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>235.96</v>
+        <v>11798</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
-        <v>214.12</v>
+        <v>11302</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
-        <v>226.04</v>
+        <v>10706</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
-        <v>189.98</v>
+        <v>9698.9</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
-        <v>175.7</v>
+        <v>9196.2000000000007</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
-        <v>156.44</v>
+        <v>8837.8694999670006</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>8904.7629749653497</v>
       </c>
       <c r="I26">
-        <v>471.92</v>
+        <f t="shared" si="1"/>
+        <v>9365.8200000000015</v>
       </c>
       <c r="J26">
-        <v>428.24</v>
-      </c>
-      <c r="K26">
-        <v>452.08</v>
-      </c>
-      <c r="L26">
-        <v>379.96</v>
-      </c>
-      <c r="M26">
-        <v>351.4</v>
-      </c>
-      <c r="N26">
-        <v>312.88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9918.7900000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>240.24</v>
+        <v>12012</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
-        <v>216.92</v>
+        <v>11463</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
-        <v>229.26</v>
+        <v>10846</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
-        <v>191.72</v>
+        <v>9794.6</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
-        <v>177.18</v>
+        <v>9293.8799999999992</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
-        <v>157.06</v>
+        <v>8966.6706008955007</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>9040.004130940275</v>
       </c>
       <c r="I27">
-        <v>480.48</v>
+        <f t="shared" si="1"/>
+        <v>9473.268</v>
       </c>
       <c r="J27">
-        <v>433.84</v>
-      </c>
-      <c r="K27">
-        <v>458.52</v>
-      </c>
-      <c r="L27">
-        <v>383.44</v>
-      </c>
-      <c r="M27">
-        <v>354.36</v>
-      </c>
-      <c r="N27">
-        <v>314.12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10024.060000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>244.32</v>
+        <v>12216</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
-        <v>220.56</v>
+        <v>11635</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>232.7</v>
+        <v>11028</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
-        <v>193.42</v>
+        <v>9888.1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
-        <v>178.02</v>
+        <v>9349.3200000000015</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
-        <v>157.76</v>
+        <v>9112.0911987180007</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>9192.6957586539011</v>
       </c>
       <c r="I28">
-        <v>488.64</v>
+        <f t="shared" si="1"/>
+        <v>9534.2520000000022</v>
       </c>
       <c r="J28">
-        <v>441.12</v>
-      </c>
-      <c r="K28">
-        <v>465.4</v>
-      </c>
-      <c r="L28">
-        <v>386.84</v>
-      </c>
-      <c r="M28">
-        <v>356.04</v>
-      </c>
-      <c r="N28">
-        <v>315.52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10126.91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>248.34</v>
+        <v>12417</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
-        <v>223.94</v>
+        <v>11795</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
-        <v>235.9</v>
+        <v>11197</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
-        <v>195.16</v>
+        <v>9983.7999999999993</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
-        <v>178.52</v>
+        <v>9382.3200000000015</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
-        <v>158.41999999999999</v>
+        <v>9249.2020480935025</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>9336.6621504981777</v>
       </c>
       <c r="I29">
-        <v>496.68</v>
+        <f t="shared" si="1"/>
+        <v>9570.5520000000015</v>
       </c>
       <c r="J29">
-        <v>447.88</v>
-      </c>
-      <c r="K29">
-        <v>471.8</v>
-      </c>
-      <c r="L29">
-        <v>390.32</v>
-      </c>
-      <c r="M29">
-        <v>357.04</v>
-      </c>
-      <c r="N29">
-        <v>316.83999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10232.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>252.14</v>
+        <v>12607</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
-        <v>227.56</v>
+        <v>11984</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
-        <v>239.68</v>
+        <v>11378</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
-        <v>196.96</v>
+        <v>10082.799999999999</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
-        <v>180.14</v>
+        <v>9489.24</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
-        <v>158.32</v>
+        <v>9228.4276769759981</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>9314.8490608247976</v>
       </c>
       <c r="I30">
-        <v>504.28</v>
+        <f t="shared" si="1"/>
+        <v>9688.1640000000007</v>
       </c>
       <c r="J30">
-        <v>455.12</v>
-      </c>
-      <c r="K30">
-        <v>479.36</v>
-      </c>
-      <c r="L30">
-        <v>393.92</v>
-      </c>
-      <c r="M30">
-        <v>360.28</v>
-      </c>
-      <c r="N30">
-        <v>316.64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10341.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>256.5</v>
+        <v>12825</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
-        <v>230</v>
+        <v>12159</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
-        <v>243.18</v>
+        <v>11500</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
-        <v>198.72</v>
+        <v>10179.6</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
-        <v>181.64</v>
+        <v>9588.24</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
-        <v>158.32</v>
+        <v>9228.4276769759981</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>9314.8490608247976</v>
       </c>
       <c r="I31">
-        <v>513</v>
+        <f t="shared" si="1"/>
+        <v>9797.0640000000003</v>
       </c>
       <c r="J31">
-        <v>460</v>
-      </c>
-      <c r="K31">
-        <v>486.36</v>
-      </c>
-      <c r="L31">
-        <v>397.44</v>
-      </c>
-      <c r="M31">
-        <v>363.28</v>
-      </c>
-      <c r="N31">
-        <v>316.64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10447.560000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>260.77999999999997</v>
+        <v>13038.999999999998</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
-        <v>232.58</v>
+        <v>12315</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
-        <v>246.3</v>
+        <v>11629</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>200.44</v>
+        <v>10274.200000000001</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
-        <v>183.04</v>
+        <v>9680.64</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
-        <v>158.91999999999999</v>
+        <v>9353.0739036809937</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>9445.7275988650435</v>
       </c>
       <c r="I32">
-        <v>521.55999999999995</v>
+        <f t="shared" si="1"/>
+        <v>9898.7039999999997</v>
       </c>
       <c r="J32">
-        <v>465.16</v>
-      </c>
-      <c r="K32">
-        <v>492.6</v>
-      </c>
-      <c r="L32">
-        <v>400.88</v>
-      </c>
-      <c r="M32">
-        <v>366.08</v>
-      </c>
-      <c r="N32">
-        <v>317.83999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10551.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>265.10000000000002</v>
+        <v>13255.000000000002</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
-        <v>234.86</v>
+        <v>12447</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
-        <v>248.94</v>
+        <v>11743</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
-        <v>202.16</v>
+        <v>10368.799999999999</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
-        <v>183.9</v>
+        <v>9737.4</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
-        <v>159.54</v>
+        <v>9481.875004609501</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>9580.9687548399761</v>
       </c>
       <c r="I33">
-        <v>530.20000000000005</v>
+        <f t="shared" si="1"/>
+        <v>9961.14</v>
       </c>
       <c r="J33">
-        <v>469.72</v>
-      </c>
-      <c r="K33">
-        <v>497.88</v>
-      </c>
-      <c r="L33">
-        <v>404.32</v>
-      </c>
-      <c r="M33">
-        <v>367.8</v>
-      </c>
-      <c r="N33">
-        <v>319.08</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10655.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>269.7</v>
+        <v>13485</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
-        <v>238.46</v>
+        <v>12618</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
-        <v>252.36</v>
+        <v>11923</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
-        <v>203.88</v>
+        <v>10463.4</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
-        <v>185.46</v>
+        <v>9840.36</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
-        <v>159.82</v>
+        <v>9540.0432437385061</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>9642.0454059254316</v>
       </c>
       <c r="I34">
-        <v>539.4</v>
+        <f t="shared" si="1"/>
+        <v>10074.396000000001</v>
       </c>
       <c r="J34">
-        <v>476.92</v>
-      </c>
-      <c r="K34">
-        <v>504.72</v>
-      </c>
-      <c r="L34">
-        <v>407.76</v>
-      </c>
-      <c r="M34">
-        <v>370.92</v>
-      </c>
-      <c r="N34">
-        <v>319.64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10759.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>274.04000000000002</v>
+        <v>13702.000000000002</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
-        <v>240.48</v>
+        <v>12775</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
-        <v>255.5</v>
+        <v>12024</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
-        <v>205.82</v>
+        <v>10570.1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
-        <v>187.06</v>
+        <v>9945.9600000000009</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
-        <v>159.96</v>
+        <v>9569.1273633029996</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>9672.5837314681503</v>
       </c>
       <c r="I35">
-        <v>548.08000000000004</v>
+        <f t="shared" si="1"/>
+        <v>10190.556</v>
       </c>
       <c r="J35">
-        <v>480.96</v>
-      </c>
-      <c r="K35">
-        <v>511</v>
-      </c>
-      <c r="L35">
-        <v>411.64</v>
-      </c>
-      <c r="M35">
-        <v>374.12</v>
-      </c>
-      <c r="N35">
-        <v>319.92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10877.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>278.95999999999998</v>
+        <v>13947.999999999998</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
-        <v>242.88</v>
+        <v>12913</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
-        <v>258.26</v>
+        <v>12144</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
-        <v>207.84</v>
+        <v>10681.2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
-        <v>188.72</v>
+        <v>10055.52</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
-        <v>160.68</v>
+        <v>9564.9723353490008</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>9668.2209521164514</v>
       </c>
       <c r="I36">
-        <v>557.91999999999996</v>
+        <f t="shared" si="1"/>
+        <v>10311.072</v>
       </c>
       <c r="J36">
-        <v>485.76</v>
-      </c>
-      <c r="K36">
-        <v>516.52</v>
-      </c>
-      <c r="L36">
-        <v>415.68</v>
-      </c>
-      <c r="M36">
-        <v>377.44</v>
-      </c>
-      <c r="N36">
-        <v>321.36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10999.320000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>283.86</v>
+        <v>14193</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
-        <v>244.72</v>
+        <v>13037</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
-        <v>260.74</v>
+        <v>12236</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
-        <v>209.88</v>
+        <v>10793.4</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
-        <v>189.06</v>
+        <v>10077.960000000001</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
-        <v>161.04</v>
+        <v>9564.1415142348069</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>9667.3485899465468</v>
       </c>
       <c r="I37">
-        <v>567.72</v>
+        <f t="shared" si="1"/>
+        <v>10335.756000000001</v>
       </c>
       <c r="J37">
-        <v>489.44</v>
-      </c>
-      <c r="K37">
-        <v>521.48</v>
-      </c>
-      <c r="L37">
-        <v>419.76</v>
-      </c>
-      <c r="M37">
-        <v>378.12</v>
-      </c>
-      <c r="N37">
-        <v>322.08</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11122.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="0"/>
-        <v>288.14</v>
+        <v>14407</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
-        <v>246.24</v>
+        <v>13180.000000000002</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>263.60000000000002</v>
+        <v>12312</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
-        <v>211.9</v>
+        <v>10904.5</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
-        <v>190.1</v>
+        <v>10146.6</v>
       </c>
       <c r="F38">
-        <f t="shared" si="5"/>
-        <v>161.58000000000001</v>
+        <v>9665.1049578658549</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>9773.3602057591488</v>
       </c>
       <c r="I38">
-        <v>576.28</v>
+        <f t="shared" si="1"/>
+        <v>10411.26</v>
       </c>
       <c r="J38">
-        <v>492.48</v>
-      </c>
-      <c r="K38">
-        <v>527.20000000000005</v>
-      </c>
-      <c r="L38">
-        <v>423.8</v>
-      </c>
-      <c r="M38">
-        <v>380.2</v>
-      </c>
-      <c r="N38">
-        <v>323.16000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11244.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="0"/>
-        <v>293.12</v>
+        <v>14656</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
-        <v>247.44</v>
+        <v>13331</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
-        <v>266.62</v>
+        <v>12372</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
-        <v>213.86</v>
+        <v>11012.3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
-        <v>192</v>
+        <v>10272</v>
       </c>
       <c r="F39">
-        <f t="shared" si="5"/>
-        <v>161.80000000000001</v>
+        <v>9706.2382126785014</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>9816.5501233124269</v>
       </c>
       <c r="I39">
-        <v>586.24</v>
+        <f t="shared" si="1"/>
+        <v>10549.2</v>
       </c>
       <c r="J39">
-        <v>494.88</v>
-      </c>
-      <c r="K39">
-        <v>533.24</v>
-      </c>
-      <c r="L39">
-        <v>427.72</v>
-      </c>
-      <c r="M39">
-        <v>384</v>
-      </c>
-      <c r="N39">
-        <v>323.60000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11363.529999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="0"/>
-        <v>298.39999999999998</v>
+        <v>14919.999999999998</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
-        <v>250.02</v>
+        <v>13500</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
-        <v>270</v>
+        <v>12501</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
-        <v>215.88</v>
+        <v>11123.4</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
-        <v>193.8</v>
+        <v>10390.799999999999</v>
       </c>
       <c r="F40">
-        <f t="shared" si="5"/>
-        <v>162.72</v>
+        <v>9878.2500055314031</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>9997.1625058079735</v>
       </c>
       <c r="I40">
-        <v>596.79999999999995</v>
+        <f t="shared" si="1"/>
+        <v>10679.88</v>
       </c>
       <c r="J40">
-        <v>500.04</v>
-      </c>
-      <c r="K40">
-        <v>540</v>
-      </c>
-      <c r="L40">
-        <v>431.76</v>
-      </c>
-      <c r="M40">
-        <v>387.6</v>
-      </c>
-      <c r="N40">
-        <v>325.44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11485.74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="0"/>
-        <v>303.06</v>
+        <v>15153</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
-        <v>252.6</v>
+        <v>13663</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
-        <v>273.26</v>
+        <v>12630</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
-        <v>217.92</v>
+        <v>11235.6</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
-        <v>194.54</v>
+        <v>10439.64</v>
       </c>
       <c r="F41">
-        <f t="shared" si="5"/>
-        <v>162.97999999999999</v>
+        <v>9926.8620339463505</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>10048.205135643668</v>
       </c>
       <c r="I41">
-        <v>606.12</v>
+        <f t="shared" si="1"/>
+        <v>10733.603999999999</v>
       </c>
       <c r="J41">
-        <v>505.2</v>
-      </c>
-      <c r="K41">
-        <v>546.52</v>
-      </c>
-      <c r="L41">
-        <v>435.84</v>
-      </c>
-      <c r="M41">
-        <v>389.08</v>
-      </c>
-      <c r="N41">
-        <v>325.95999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11609.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="0"/>
-        <v>306.56</v>
+        <v>15328</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
-        <v>255.42</v>
+        <v>13781</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
-        <v>275.62</v>
+        <v>12771</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
-        <v>219.94</v>
+        <v>11346.7</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
-        <v>195.7</v>
+        <v>10516.2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="5"/>
-        <v>163.78</v>
+        <v>10076.437505992353</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>10205.259381291971</v>
       </c>
       <c r="I42">
-        <v>613.12</v>
+        <f t="shared" si="1"/>
+        <v>10817.820000000002</v>
       </c>
       <c r="J42">
-        <v>510.84</v>
-      </c>
-      <c r="K42">
-        <v>551.24</v>
-      </c>
-      <c r="L42">
-        <v>439.88</v>
-      </c>
-      <c r="M42">
-        <v>391.4</v>
-      </c>
-      <c r="N42">
-        <v>327.56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11731.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="0"/>
-        <v>310.10000000000002</v>
+        <v>15505.000000000002</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
-        <v>256.77999999999997</v>
+        <v>13851</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
-        <v>277.02</v>
+        <v>12838.999999999998</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
-        <v>221.9</v>
+        <v>11454.5</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
-        <v>197.6</v>
+        <v>10641.6</v>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
-        <v>164.8</v>
+        <v>10113.415732851003</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>10244.086519493554</v>
       </c>
       <c r="I43">
-        <v>620.20000000000005</v>
+        <f t="shared" si="1"/>
+        <v>10955.76</v>
       </c>
       <c r="J43">
-        <v>513.55999999999995</v>
-      </c>
-      <c r="K43">
-        <v>554.04</v>
-      </c>
-      <c r="L43">
-        <v>443.8</v>
-      </c>
-      <c r="M43">
-        <v>395.2</v>
-      </c>
-      <c r="N43">
-        <v>329.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11849.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="0"/>
-        <v>313.27999999999997</v>
+        <v>15663.999999999998</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
-        <v>258.5</v>
+        <v>14031</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
-        <v>280.62</v>
+        <v>12925</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
-        <v>223.92</v>
+        <v>11565.6</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
-        <v>198.66</v>
+        <v>10711.560000000001</v>
       </c>
       <c r="F44">
-        <f t="shared" si="5"/>
-        <v>165.84</v>
+        <v>10165.434911859722</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>10298.706657452709</v>
       </c>
       <c r="I44">
-        <v>626.55999999999995</v>
+        <f t="shared" si="1"/>
+        <v>11032.716000000002</v>
       </c>
       <c r="J44">
-        <v>517</v>
-      </c>
-      <c r="K44">
-        <v>561.24</v>
-      </c>
-      <c r="L44">
-        <v>447.84</v>
-      </c>
-      <c r="M44">
-        <v>397.32</v>
-      </c>
-      <c r="N44">
-        <v>331.68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11972.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
-        <v>316.54000000000002</v>
+        <v>15827.000000000002</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
-        <v>259.72000000000003</v>
+        <v>14138</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
-        <v>282.76</v>
+        <v>12986.000000000002</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
-        <v>225.96</v>
+        <v>11677.8</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
-        <v>200.36</v>
+        <v>10823.76</v>
       </c>
       <c r="F45">
-        <f t="shared" si="5"/>
-        <v>166.52</v>
+        <v>10279.860147974909</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>10418.853155373654</v>
       </c>
       <c r="I45">
-        <v>633.08000000000004</v>
+        <f t="shared" si="1"/>
+        <v>11156.136</v>
       </c>
       <c r="J45">
-        <v>519.44000000000005</v>
-      </c>
-      <c r="K45">
-        <v>565.52</v>
-      </c>
-      <c r="L45">
-        <v>451.92</v>
-      </c>
-      <c r="M45">
-        <v>400.72</v>
-      </c>
-      <c r="N45">
-        <v>333.04</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>12095.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
-        <v>319.77999999999997</v>
+        <v>15988.999999999998</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
-        <v>263.44</v>
+        <v>14280.000000000002</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
-        <v>285.60000000000002</v>
+        <v>13172</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
-        <v>227.98</v>
+        <v>11788.900000000001</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
-        <v>202.16</v>
+        <v>10942.560000000001</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
-        <v>167.36</v>
+        <v>10421.208969058378</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>10567.269417511297</v>
       </c>
       <c r="I46">
-        <v>639.55999999999995</v>
+        <f t="shared" si="1"/>
+        <v>11286.816000000003</v>
       </c>
       <c r="J46">
-        <v>526.88</v>
-      </c>
-      <c r="K46">
-        <v>571.20000000000005</v>
-      </c>
-      <c r="L46">
-        <v>455.96</v>
-      </c>
-      <c r="M46">
-        <v>404.32</v>
-      </c>
-      <c r="N46">
-        <v>334.72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>12217.79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
-        <v>323.10000000000002</v>
+        <v>16155.000000000002</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
-        <v>263.94</v>
+        <v>14374</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
-        <v>287.48</v>
+        <v>13197</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
-        <v>230</v>
+        <v>11900</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
-        <v>203.98</v>
+        <v>11062.68</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
-        <v>169.24</v>
+        <v>10413.804983192107</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>10559.495232351714</v>
       </c>
       <c r="I47">
-        <v>646.20000000000005</v>
+        <f t="shared" si="1"/>
+        <v>11418.948</v>
       </c>
       <c r="J47">
-        <v>527.88</v>
-      </c>
-      <c r="K47">
-        <v>574.96</v>
-      </c>
-      <c r="L47">
-        <v>460</v>
-      </c>
-      <c r="M47">
-        <v>407.96</v>
-      </c>
-      <c r="N47">
-        <v>338.48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>12340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
-        <v>326.42</v>
+        <v>16321</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
-        <v>266.68</v>
+        <v>14487</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
-        <v>289.74</v>
+        <v>13334</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
-        <v>231.96</v>
+        <v>12007.8</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
-        <v>204.86</v>
+        <v>11120.76</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
-        <v>171.42</v>
+        <v>10512.955443865638</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>10663.60321605892</v>
       </c>
       <c r="I48">
-        <v>652.84</v>
+        <f t="shared" si="1"/>
+        <v>11482.836000000001</v>
       </c>
       <c r="J48">
-        <v>533.36</v>
-      </c>
-      <c r="K48">
-        <v>579.48</v>
-      </c>
-      <c r="L48">
-        <v>463.92</v>
-      </c>
-      <c r="M48">
-        <v>409.72</v>
-      </c>
-      <c r="N48">
-        <v>342.84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>12458.58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
-        <v>329.52</v>
+        <v>16476</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
-        <v>267.88</v>
+        <v>14577.000000000002</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
-        <v>291.54000000000002</v>
+        <v>13394</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
-        <v>234</v>
+        <v>12120</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
-        <v>205.94</v>
+        <v>11192.04</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
-        <v>173.06</v>
+        <v>10645.825515198019</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>10803.11679095792</v>
       </c>
       <c r="I49">
-        <v>659.04</v>
+        <f t="shared" si="1"/>
+        <v>11561.244000000002</v>
       </c>
       <c r="J49">
-        <v>535.76</v>
-      </c>
-      <c r="K49">
-        <v>583.08000000000004</v>
-      </c>
-      <c r="L49">
-        <v>468</v>
-      </c>
-      <c r="M49">
-        <v>411.88</v>
-      </c>
-      <c r="N49">
-        <v>346.12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>12582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
-        <v>331.38</v>
+        <v>16569</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
-        <v>268.45999999999998</v>
+        <v>14655.000000000002</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
-        <v>293.10000000000002</v>
+        <v>13422.999999999998</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
-        <v>235.96</v>
+        <v>12227.8</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
-        <v>207.66</v>
+        <v>11305.560000000001</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
-        <v>175.24</v>
+        <v>10744.975975871552</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>10907.22477466513</v>
       </c>
       <c r="I50">
-        <v>662.76</v>
+        <f t="shared" si="1"/>
+        <v>11686.116000000002</v>
       </c>
       <c r="J50">
-        <v>536.91999999999996</v>
-      </c>
-      <c r="K50">
-        <v>586.20000000000005</v>
-      </c>
-      <c r="L50">
-        <v>471.92</v>
-      </c>
-      <c r="M50">
-        <v>415.32</v>
-      </c>
-      <c r="N50">
-        <v>350.48</v>
+        <f t="shared" si="2"/>
+        <v>12700.58</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3731,7 +3131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
